--- a/biology/Botanique/Spondianthus_preussii/Spondianthus_preussii.xlsx
+++ b/biology/Botanique/Spondianthus_preussii/Spondianthus_preussii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spondianthus preussii est une espèce de plantes à fleurs de la famille des Phyllanthaceae et du genre Spondianthus, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spondianthus preussii est une espèce de plantes à fleurs de la famille des Phyllanthaceae et du genre Spondianthus, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique preussii rend hommage à l'explorateur et botaniste allemand Paul Rudolph Preuss, actif en Afrique centrale[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique preussii rend hommage à l'explorateur et botaniste allemand Paul Rudolph Preuss, actif en Afrique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre pouvant atteindre 30 m de hauteur. Ses fleurs sont de couleur crème[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre pouvant atteindre 30 m de hauteur. Ses fleurs sont de couleur crème.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Sénégal au Soudan et en Ouganda, également vers le sud, en république du Congo, Angola, république démocratique du Congo, Mozambique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Sénégal au Soudan et en Ouganda, également vers le sud, en république du Congo, Angola, république démocratique du Congo, Mozambique.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez répandue, on rencontre la plante dans les forêts marécageuses, les forêts galeries, plus rarement dans les endroits secs[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez répandue, on rencontre la plante dans les forêts marécageuses, les forêts galeries, plus rarement dans les endroits secs.
 </t>
         </is>
       </c>
@@ -635,10 +655,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les parties de la plante sont extrêmement toxiques, notamment les feuilles pour le bétail[5], et la plante est vendue comme raticide sur les marchés. Elle est donc peu utilisée à des fins médicinales, même si des décoctions très diluées sont parfois préparées pour traiter la fièvre (feuilles) ou les douleurs dentaires (écorce[2]).
-Le bois, lourd et dense, est employé dans la construction ou la fabrication des pirogues monoxyles. Du fait de sa combustion lente, il produit un bon charbon de bois, apprécié des forgerons[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les parties de la plante sont extrêmement toxiques, notamment les feuilles pour le bétail, et la plante est vendue comme raticide sur les marchés. Elle est donc peu utilisée à des fins médicinales, même si des décoctions très diluées sont parfois préparées pour traiter la fièvre (feuilles) ou les douleurs dentaires (écorce).
+Le bois, lourd et dense, est employé dans la construction ou la fabrication des pirogues monoxyles. Du fait de sa combustion lente, il produit un bon charbon de bois, apprécié des forgerons.
 </t>
         </is>
       </c>
@@ -668,6 +690,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -694,6 +718,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -719,14 +745,16 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 juin 2020)[6] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 juin 2020) :
 sous-espèce Spondianthus preussii subsp. glaber (Engl.) J.Léonard &amp; Nkounkou
 sous-espèce Spondianthus preussii subsp. preussii
-Selon The Plant List            (26 juin 2020)[1] :
+Selon The Plant List            (26 juin 2020) :
 variété Spondianthus preussii var. glaber (Engl.) Engl.
-Selon Tropicos                                           (26 juin 2020)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Spondianthus preussii subsp. glaber (Engl.) J. Leonard &amp; Nkounkou
 variété Spondianthus preussii var. genuina Pax &amp; K. Hoffm.
 variété Spondianthus preussii var. glaber (Engl.) Engl.
